--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.440607762898742</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N2">
-        <v>0.440607762898742</v>
+        <v>7.85986</v>
       </c>
       <c r="O2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q2">
-        <v>3.505011472253016</v>
+        <v>0.5637467118644445</v>
       </c>
       <c r="R2">
-        <v>3.505011472253016</v>
+        <v>5.07372040678</v>
       </c>
       <c r="S2">
-        <v>0.226664647078114</v>
+        <v>0.01186997877284429</v>
       </c>
       <c r="T2">
-        <v>0.226664647078114</v>
+        <v>0.01186997877284429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01110445141544</v>
+        <v>0.5698483333333333</v>
       </c>
       <c r="N3">
-        <v>1.01110445141544</v>
+        <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="P3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="Q3">
-        <v>8.043282484497796</v>
+        <v>0.1226167352261111</v>
       </c>
       <c r="R3">
-        <v>8.043282484497796</v>
+        <v>1.103550617035</v>
       </c>
       <c r="S3">
-        <v>0.520148878293504</v>
+        <v>0.002581758817742566</v>
       </c>
       <c r="T3">
-        <v>0.520148878293504</v>
+        <v>0.002581758817742566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.508987418190017</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>0.508987418190017</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.440607762898742</v>
+        <v>1.105183</v>
       </c>
       <c r="N4">
-        <v>0.440607762898742</v>
+        <v>3.315549</v>
       </c>
       <c r="O4">
-        <v>0.3035090278598324</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="P4">
-        <v>0.3035090278598324</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="Q4">
-        <v>0.2242638076723099</v>
+        <v>0.2378070152363333</v>
       </c>
       <c r="R4">
-        <v>0.2242638076723099</v>
+        <v>2.140263137127</v>
       </c>
       <c r="S4">
-        <v>0.01450285604507964</v>
+        <v>0.005007149777518315</v>
       </c>
       <c r="T4">
-        <v>0.01450285604507964</v>
+        <v>0.005007149777518315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H5">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I5">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J5">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.01110445141544</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N5">
-        <v>1.01110445141544</v>
+        <v>7.85986</v>
       </c>
       <c r="O5">
-        <v>0.6964909721401676</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P5">
-        <v>0.6964909721401676</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q5">
-        <v>0.5146394442463783</v>
+        <v>21.16183815820445</v>
       </c>
       <c r="R5">
-        <v>0.5146394442463783</v>
+        <v>190.45654342384</v>
       </c>
       <c r="S5">
-        <v>0.03328108022642198</v>
+        <v>0.4455734542583957</v>
       </c>
       <c r="T5">
-        <v>0.03328108022642198</v>
+        <v>0.4455734542583957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.18791744350908</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>2.18791744350908</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.440607762898742</v>
+        <v>0.5698483333333333</v>
       </c>
       <c r="N6">
-        <v>0.440607762898742</v>
+        <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.3035090278598324</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="P6">
-        <v>0.3035090278598324</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="Q6">
-        <v>0.9640134101916703</v>
+        <v>4.602768320831111</v>
       </c>
       <c r="R6">
-        <v>0.9640134101916703</v>
+        <v>41.42491488747999</v>
       </c>
       <c r="S6">
-        <v>0.06234152473663879</v>
+        <v>0.09691366905519552</v>
       </c>
       <c r="T6">
-        <v>0.06234152473663879</v>
+        <v>0.09691366905519552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.077181333333334</v>
+      </c>
+      <c r="H7">
+        <v>24.231544</v>
+      </c>
+      <c r="I7">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="J7">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.105183</v>
+      </c>
+      <c r="N7">
+        <v>3.315549</v>
+      </c>
+      <c r="O7">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P7">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q7">
+        <v>8.926763497517333</v>
+      </c>
+      <c r="R7">
+        <v>80.34087147765599</v>
+      </c>
+      <c r="S7">
+        <v>0.1879576252875967</v>
+      </c>
+      <c r="T7">
+        <v>0.1879576252875967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.519176</v>
+      </c>
+      <c r="H8">
+        <v>1.557528</v>
+      </c>
+      <c r="I8">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J8">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.619953333333334</v>
+      </c>
+      <c r="N8">
+        <v>7.85986</v>
+      </c>
+      <c r="O8">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="P8">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="Q8">
+        <v>1.360216891786667</v>
+      </c>
+      <c r="R8">
+        <v>12.24195202608</v>
+      </c>
+      <c r="S8">
+        <v>0.02864007060648593</v>
+      </c>
+      <c r="T8">
+        <v>0.02864007060648593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.519176</v>
+      </c>
+      <c r="H9">
+        <v>1.557528</v>
+      </c>
+      <c r="I9">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J9">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.709545</v>
+      </c>
+      <c r="O9">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="P9">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="Q9">
+        <v>0.2958515783066666</v>
+      </c>
+      <c r="R9">
+        <v>2.66266420476</v>
+      </c>
+      <c r="S9">
+        <v>0.006229308092633327</v>
+      </c>
+      <c r="T9">
+        <v>0.006229308092633327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.519176</v>
+      </c>
+      <c r="H10">
+        <v>1.557528</v>
+      </c>
+      <c r="I10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.105183</v>
+      </c>
+      <c r="N10">
+        <v>3.315549</v>
+      </c>
+      <c r="O10">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P10">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q10">
+        <v>0.573784489208</v>
+      </c>
+      <c r="R10">
+        <v>5.164060402872</v>
+      </c>
+      <c r="S10">
+        <v>0.01208132936964066</v>
+      </c>
+      <c r="T10">
+        <v>0.01208132936964066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H7">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I7">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J7">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.01110445141544</v>
-      </c>
-      <c r="N7">
-        <v>1.01110445141544</v>
-      </c>
-      <c r="O7">
-        <v>0.6964909721401676</v>
-      </c>
-      <c r="P7">
-        <v>0.6964909721401676</v>
-      </c>
-      <c r="Q7">
-        <v>2.21221306646152</v>
-      </c>
-      <c r="R7">
-        <v>2.21221306646152</v>
-      </c>
-      <c r="S7">
-        <v>0.1430610136202419</v>
-      </c>
-      <c r="T7">
-        <v>0.1430610136202419</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H11">
+        <v>6.73909</v>
+      </c>
+      <c r="I11">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J11">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.619953333333334</v>
+      </c>
+      <c r="N11">
+        <v>7.85986</v>
+      </c>
+      <c r="O11">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="P11">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="Q11">
+        <v>5.885367103044445</v>
+      </c>
+      <c r="R11">
+        <v>52.9683039274</v>
+      </c>
+      <c r="S11">
+        <v>0.1239194501950933</v>
+      </c>
+      <c r="T11">
+        <v>0.1239194501950933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H12">
+        <v>6.73909</v>
+      </c>
+      <c r="I12">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J12">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.709545</v>
+      </c>
+      <c r="O12">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="P12">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="Q12">
+        <v>1.280086401561111</v>
+      </c>
+      <c r="R12">
+        <v>11.52077761405</v>
+      </c>
+      <c r="S12">
+        <v>0.02695288166503866</v>
+      </c>
+      <c r="T12">
+        <v>0.02695288166503866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.73909</v>
+      </c>
+      <c r="I13">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J13">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.105183</v>
+      </c>
+      <c r="N13">
+        <v>3.315549</v>
+      </c>
+      <c r="O13">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P13">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q13">
+        <v>2.482642567823333</v>
+      </c>
+      <c r="R13">
+        <v>22.34378311041</v>
+      </c>
+      <c r="S13">
+        <v>0.05227332410181497</v>
+      </c>
+      <c r="T13">
+        <v>0.05227332410181497</v>
       </c>
     </row>
   </sheetData>
